--- a/biology/Zoologie/Batara_gorgeret/Batara_gorgeret.xlsx
+++ b/biology/Zoologie/Batara_gorgeret/Batara_gorgeret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dysithamnus mentalis
 Le Batara gorgeret (Dysithamnus mentalis) est une espèce de passereaux de la famille des Thamnophilidae (Thamnophilidés en français).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Batara gorgeret mesure environ 13 cm.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,7 +585,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve du sud du Mexique, en Amérique centrale à l'exception du Salvador jusqu'au Nord-Est de l'Argentine.
 </t>
@@ -601,6 +619,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,7 +646,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il existe 18 sous-espèces :
 Dysithamnus mentalis septentrionalis (Ridgway, 1908)
